--- a/Team_06_Report.xlsx
+++ b/Team_06_Report.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sem 1 docs\agile\my agile\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7935" tabRatio="755" activeTab="3"/>
   </bookViews>
@@ -21,17 +16,12 @@
     <sheet name="Sprint4" sheetId="6" r:id="rId7"/>
     <sheet name="Stories" sheetId="11" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="191">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -598,6 +588,42 @@
   </si>
   <si>
     <t>sid-s_repository</t>
+  </si>
+  <si>
+    <t>T02.01</t>
+  </si>
+  <si>
+    <t>T02.02</t>
+  </si>
+  <si>
+    <t>T02.03</t>
+  </si>
+  <si>
+    <t>Fetch birth date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fetch marriage date </t>
+  </si>
+  <si>
+    <t>Compare birth and marriage date ( Marriage after birth)</t>
+  </si>
+  <si>
+    <t>T03.01</t>
+  </si>
+  <si>
+    <t>T03.02</t>
+  </si>
+  <si>
+    <t>T03.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fetch Death date </t>
+  </si>
+  <si>
+    <t>Compare birth and marriage date ( Death after birth)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coding </t>
   </si>
 </sst>
 </file>
@@ -674,7 +700,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="56">
+  <cellStyleXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -731,8 +757,61 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -760,8 +839,16 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="56">
+  <cellStyles count="109">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -789,6 +876,33 @@
     <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -816,7 +930,33 @@
     <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="55" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -824,9 +964,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -897,11 +1034,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="406864992"/>
-        <c:axId val="406872440"/>
+        <c:axId val="182227712"/>
+        <c:axId val="182229248"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="406864992"/>
+        <c:axId val="182227712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -911,14 +1048,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="406872440"/>
+        <c:crossAx val="182229248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="406872440"/>
+        <c:axId val="182229248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -929,7 +1066,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="406864992"/>
+        <c:crossAx val="182227712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1307,15 +1444,15 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.76171875" customWidth="1"/>
-    <col min="2" max="2" width="8.3515625" customWidth="1"/>
-    <col min="3" max="3" width="8.5859375" customWidth="1"/>
-    <col min="4" max="5" width="20.5859375" customWidth="1"/>
+    <col min="1" max="1" width="8.75" customWidth="1"/>
+    <col min="2" max="2" width="8.375" customWidth="1"/>
+    <col min="3" max="3" width="8.625" customWidth="1"/>
+    <col min="4" max="5" width="20.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>19</v>
       </c>
@@ -1332,7 +1469,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>168</v>
       </c>
@@ -1349,7 +1486,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>171</v>
       </c>
@@ -1366,7 +1503,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D8" s="4" t="s">
         <v>34</v>
       </c>
@@ -1398,19 +1535,19 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.1171875" customWidth="1"/>
-    <col min="2" max="2" width="8.41015625" customWidth="1"/>
-    <col min="3" max="3" width="27.05859375" customWidth="1"/>
-    <col min="4" max="4" width="6.703125" customWidth="1"/>
-    <col min="5" max="5" width="7.703125" customWidth="1"/>
+    <col min="1" max="1" width="9.125" customWidth="1"/>
+    <col min="2" max="2" width="8.375" customWidth="1"/>
+    <col min="3" max="3" width="27" customWidth="1"/>
+    <col min="4" max="4" width="6.75" customWidth="1"/>
+    <col min="5" max="5" width="7.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>29</v>
       </c>
@@ -1427,7 +1564,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1437,8 +1574,14 @@
       <c r="C2" s="14" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1448,8 +1591,14 @@
       <c r="C3" s="14" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1460,7 +1609,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1471,7 +1620,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1482,7 +1631,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1493,7 +1642,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1504,7 +1653,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1515,7 +1664,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1526,7 +1675,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1537,7 +1686,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1548,7 +1697,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1559,7 +1708,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1570,7 +1719,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1581,7 +1730,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1592,7 +1741,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1623,17 +1772,17 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.703125" style="2"/>
-    <col min="2" max="2" width="16.703125" customWidth="1"/>
-    <col min="3" max="3" width="12.5859375" customWidth="1"/>
-    <col min="4" max="4" width="7.1171875" customWidth="1"/>
-    <col min="5" max="5" width="6.87890625" customWidth="1"/>
-    <col min="6" max="6" width="12.5859375" style="9" customWidth="1"/>
+    <col min="1" max="1" width="10.75" style="2"/>
+    <col min="2" max="2" width="16.75" customWidth="1"/>
+    <col min="3" max="3" width="12.625" customWidth="1"/>
+    <col min="4" max="4" width="7.125" customWidth="1"/>
+    <col min="5" max="5" width="6.875" customWidth="1"/>
+    <col min="6" max="6" width="12.625" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1653,7 +1802,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>41064</v>
       </c>
@@ -1664,7 +1813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>40340</v>
       </c>
@@ -1701,26 +1850,26 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="103" zoomScaleNormal="103" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.29296875" customWidth="1"/>
-    <col min="2" max="2" width="25.234375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.703125" customWidth="1"/>
-    <col min="4" max="4" width="8.87890625" customWidth="1"/>
-    <col min="5" max="5" width="9.46875" customWidth="1"/>
-    <col min="6" max="6" width="10.3515625" customWidth="1"/>
-    <col min="7" max="7" width="9.3515625" customWidth="1"/>
-    <col min="8" max="8" width="9.76171875" customWidth="1"/>
-    <col min="9" max="9" width="10.703125" style="6"/>
+    <col min="1" max="1" width="9.25" customWidth="1"/>
+    <col min="2" max="2" width="25.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.75" customWidth="1"/>
+    <col min="4" max="4" width="8.875" customWidth="1"/>
+    <col min="5" max="5" width="9.5" customWidth="1"/>
+    <col min="6" max="6" width="10.375" customWidth="1"/>
+    <col min="7" max="7" width="9.375" customWidth="1"/>
+    <col min="8" max="8" width="9.75" customWidth="1"/>
+    <col min="9" max="9" width="10.75" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -1749,12 +1898,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>149</v>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="15" t="s">
+        <v>124</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>168</v>
@@ -1769,107 +1918,185 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>150</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>106</v>
+        <v>179</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>182</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="15"/>
+      <c r="I3" s="7"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="D4" s="15"/>
+      <c r="I4" s="7"/>
+    </row>
+    <row r="5" spans="1:9" s="18" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="D5" s="15"/>
+      <c r="I5" s="20"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="D6" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="E3">
+      <c r="E6">
         <v>5</v>
       </c>
-      <c r="F3">
+      <c r="F6">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="7" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="D7" s="15"/>
+      <c r="I7" s="20"/>
+    </row>
+    <row r="8" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="D8" s="15"/>
+      <c r="I8" s="20"/>
+    </row>
+    <row r="9" spans="1:9" s="18" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="D9" s="15"/>
+      <c r="I9" s="20"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B10" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C10" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D10" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="E4">
+      <c r="E10">
         <v>5</v>
       </c>
-      <c r="F4">
+      <c r="F10">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B11" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C11" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D11" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="E5">
+      <c r="E11">
         <v>5</v>
       </c>
-      <c r="F5">
+      <c r="F11">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="E6">
-        <f>SUM(E2:E5)</f>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E12">
+        <f>SUM(E2:E11)</f>
         <v>20</v>
       </c>
-      <c r="F6">
-        <f>SUM(F2:F5)</f>
+      <c r="F12">
+        <f>SUM(F2:F11)</f>
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B12" s="5" t="s">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B18" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B13" s="5"/>
-      <c r="I13" s="7"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B14" s="5" t="s">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B19" s="5"/>
+      <c r="I19" s="7"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B20" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B15" s="1" t="s">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B21" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B16" s="1" t="s">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B22" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B18" s="5" t="s">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B24" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="2:2" ht="24.75" x14ac:dyDescent="0.3">
-      <c r="B19" s="1" t="s">
+    <row r="25" spans="2:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B25" s="1" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1877,11 +2104,6 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -1893,9 +2115,9 @@
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="24.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -1944,9 +2166,9 @@
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="24.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -1994,9 +2216,9 @@
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="24.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -2041,16 +2263,16 @@
   <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView zoomScale="106" zoomScaleNormal="106" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="27.41015625" style="14" customWidth="1"/>
-    <col min="3" max="3" width="49.41015625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.375" style="14" customWidth="1"/>
+    <col min="3" max="3" width="49.375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>122</v>
       </c>
@@ -2061,7 +2283,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>123</v>
       </c>
@@ -2072,7 +2294,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>124</v>
       </c>
@@ -2083,7 +2305,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>125</v>
       </c>
@@ -2094,7 +2316,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>126</v>
       </c>
@@ -2105,7 +2327,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>127</v>
       </c>
@@ -2116,7 +2338,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>128</v>
       </c>
@@ -2127,7 +2349,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>129</v>
       </c>
@@ -2138,7 +2360,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>130</v>
       </c>
@@ -2149,7 +2371,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>131</v>
       </c>
@@ -2160,7 +2382,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>132</v>
       </c>
@@ -2171,7 +2393,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>133</v>
       </c>
@@ -2182,7 +2404,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>134</v>
       </c>
@@ -2193,7 +2415,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>135</v>
       </c>
@@ -2204,7 +2426,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>136</v>
       </c>
@@ -2215,7 +2437,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>137</v>
       </c>
@@ -2226,7 +2448,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>138</v>
       </c>
@@ -2237,7 +2459,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>139</v>
       </c>
@@ -2248,7 +2470,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>140</v>
       </c>
@@ -2259,7 +2481,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>141</v>
       </c>
@@ -2270,7 +2492,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>142</v>
       </c>
@@ -2281,7 +2503,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>143</v>
       </c>
@@ -2292,7 +2514,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>144</v>
       </c>
@@ -2303,7 +2525,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>145</v>
       </c>
@@ -2314,7 +2536,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>146</v>
       </c>
@@ -2325,7 +2547,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>147</v>
       </c>
@@ -2336,7 +2558,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="75" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" ht="94.5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>148</v>
       </c>
@@ -2347,7 +2569,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>149</v>
       </c>
@@ -2358,7 +2580,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>150</v>
       </c>
@@ -2369,7 +2591,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>151</v>
       </c>
@@ -2380,7 +2602,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>152</v>
       </c>
@@ -2391,7 +2613,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>153</v>
       </c>
@@ -2402,7 +2624,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>154</v>
       </c>
@@ -2413,7 +2635,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>155</v>
       </c>
@@ -2424,7 +2646,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>156</v>
       </c>
@@ -2435,7 +2657,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>157</v>
       </c>
@@ -2446,7 +2668,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>158</v>
       </c>
@@ -2457,7 +2679,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>159</v>
       </c>
@@ -2468,7 +2690,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>160</v>
       </c>
@@ -2479,7 +2701,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>161</v>
       </c>
@@ -2490,7 +2712,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>162</v>
       </c>
@@ -2501,7 +2723,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>163</v>
       </c>
@@ -2512,7 +2734,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>164</v>
       </c>

--- a/Team_06_Report.xlsx
+++ b/Team_06_Report.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shree\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7935" tabRatio="755" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13875" windowHeight="7898" tabRatio="755" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -16,12 +21,12 @@
     <sheet name="Sprint4" sheetId="6" r:id="rId7"/>
     <sheet name="Stories" sheetId="11" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="200">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -624,6 +629,33 @@
   </si>
   <si>
     <t xml:space="preserve">coding </t>
+  </si>
+  <si>
+    <t>T08.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get Birthdate of child </t>
+  </si>
+  <si>
+    <t>T08.02</t>
+  </si>
+  <si>
+    <t>Get the marriage date of parents</t>
+  </si>
+  <si>
+    <t>T08.03</t>
+  </si>
+  <si>
+    <t>Compare birth and marriage date</t>
+  </si>
+  <si>
+    <t>Sp</t>
+  </si>
+  <si>
+    <t>T01.01</t>
+  </si>
+  <si>
+    <t>Get dates (birth, marriage, divorce, death)and test against currnet date</t>
   </si>
 </sst>
 </file>
@@ -811,7 +843,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -847,6 +879,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="109">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -965,6 +998,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1034,11 +1070,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="182227712"/>
-        <c:axId val="182229248"/>
+        <c:axId val="394772432"/>
+        <c:axId val="394768512"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="182227712"/>
+        <c:axId val="394772432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1048,14 +1084,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="182229248"/>
+        <c:crossAx val="394768512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="182229248"/>
+        <c:axId val="394768512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1066,7 +1102,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="182227712"/>
+        <c:crossAx val="394772432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1444,15 +1480,15 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.87890625" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.75" customWidth="1"/>
-    <col min="2" max="2" width="8.375" customWidth="1"/>
-    <col min="3" max="3" width="8.625" customWidth="1"/>
-    <col min="4" max="5" width="20.625" customWidth="1"/>
+    <col min="1" max="1" width="8.76171875" customWidth="1"/>
+    <col min="2" max="2" width="8.3515625" customWidth="1"/>
+    <col min="3" max="3" width="8.64453125" customWidth="1"/>
+    <col min="4" max="5" width="20.64453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>19</v>
       </c>
@@ -1469,7 +1505,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>168</v>
       </c>
@@ -1486,7 +1522,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>171</v>
       </c>
@@ -1503,7 +1539,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D8" s="4" t="s">
         <v>34</v>
       </c>
@@ -1535,19 +1571,19 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.87890625" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.125" customWidth="1"/>
-    <col min="2" max="2" width="8.375" customWidth="1"/>
+    <col min="1" max="1" width="9.1171875" customWidth="1"/>
+    <col min="2" max="2" width="8.3515625" customWidth="1"/>
     <col min="3" max="3" width="27" customWidth="1"/>
-    <col min="4" max="4" width="6.75" customWidth="1"/>
-    <col min="5" max="5" width="7.75" customWidth="1"/>
+    <col min="4" max="4" width="6.76171875" customWidth="1"/>
+    <col min="5" max="5" width="7.76171875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>29</v>
       </c>
@@ -1564,7 +1600,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1575,13 +1611,13 @@
         <v>165</v>
       </c>
       <c r="D2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="E2" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1598,7 +1634,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1608,8 +1644,14 @@
       <c r="C4" s="14" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D4" t="s">
+        <v>168</v>
+      </c>
+      <c r="E4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1619,8 +1661,14 @@
       <c r="C5" s="14" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D5" t="s">
+        <v>171</v>
+      </c>
+      <c r="E5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1631,7 +1679,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1642,7 +1690,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1653,7 +1701,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1664,7 +1712,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1675,7 +1723,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1686,7 +1734,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1697,7 +1745,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1708,7 +1756,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1719,7 +1767,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1730,7 +1778,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1741,7 +1789,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1772,17 +1820,17 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.87890625" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.75" style="2"/>
-    <col min="2" max="2" width="16.75" customWidth="1"/>
-    <col min="3" max="3" width="12.625" customWidth="1"/>
-    <col min="4" max="4" width="7.125" customWidth="1"/>
-    <col min="5" max="5" width="6.875" customWidth="1"/>
-    <col min="6" max="6" width="12.625" style="9" customWidth="1"/>
+    <col min="1" max="1" width="10.76171875" style="2"/>
+    <col min="2" max="2" width="16.76171875" customWidth="1"/>
+    <col min="3" max="3" width="12.64453125" customWidth="1"/>
+    <col min="4" max="4" width="7.1171875" customWidth="1"/>
+    <col min="5" max="5" width="6.87890625" customWidth="1"/>
+    <col min="6" max="6" width="12.64453125" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1802,7 +1850,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>41064</v>
       </c>
@@ -1813,7 +1861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>40340</v>
       </c>
@@ -1852,24 +1900,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="103" zoomScaleNormal="103" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView zoomScale="103" zoomScaleNormal="103" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.25" customWidth="1"/>
-    <col min="2" max="2" width="25.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.75" customWidth="1"/>
-    <col min="4" max="4" width="8.875" customWidth="1"/>
-    <col min="5" max="5" width="9.5" customWidth="1"/>
-    <col min="6" max="6" width="10.375" customWidth="1"/>
-    <col min="7" max="7" width="9.375" customWidth="1"/>
-    <col min="8" max="8" width="9.75" customWidth="1"/>
-    <col min="9" max="9" width="10.75" style="6"/>
+    <col min="1" max="1" width="9.234375" customWidth="1"/>
+    <col min="2" max="2" width="28.46875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.76171875" customWidth="1"/>
+    <col min="4" max="4" width="8.87890625" customWidth="1"/>
+    <col min="5" max="5" width="9.46875" customWidth="1"/>
+    <col min="6" max="6" width="10.3515625" customWidth="1"/>
+    <col min="7" max="7" width="9.3515625" customWidth="1"/>
+    <col min="8" max="8" width="9.76171875" customWidth="1"/>
+    <col min="9" max="9" width="10.76171875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -1898,7 +1946,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>124</v>
       </c>
@@ -1918,7 +1966,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>179</v>
       </c>
@@ -1931,7 +1979,7 @@
       <c r="D3" s="15"/>
       <c r="I3" s="7"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>180</v>
       </c>
@@ -1944,7 +1992,7 @@
       <c r="D4" s="15"/>
       <c r="I4" s="7"/>
     </row>
-    <row r="5" spans="1:9" s="18" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" s="18" customFormat="1" ht="24.75" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
         <v>181</v>
       </c>
@@ -1957,7 +2005,7 @@
       <c r="D5" s="15"/>
       <c r="I5" s="20"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="15" t="s">
         <v>125</v>
       </c>
@@ -1977,7 +2025,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="18" t="s">
         <v>185</v>
       </c>
@@ -1990,7 +2038,7 @@
       <c r="D7" s="15"/>
       <c r="I7" s="20"/>
     </row>
-    <row r="8" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="18" t="s">
         <v>186</v>
       </c>
@@ -2003,7 +2051,7 @@
       <c r="D8" s="15"/>
       <c r="I8" s="20"/>
     </row>
-    <row r="9" spans="1:9" s="18" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" s="18" customFormat="1" ht="24.75" x14ac:dyDescent="0.3">
       <c r="A9" s="18" t="s">
         <v>187</v>
       </c>
@@ -2016,12 +2064,12 @@
       <c r="D9" s="15"/>
       <c r="I9" s="20"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="15" t="s">
-        <v>152</v>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="18" t="s">
+        <v>130</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>108</v>
+        <v>166</v>
       </c>
       <c r="C10" s="15" t="s">
         <v>171</v>
@@ -2036,66 +2084,111 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="15" t="s">
-        <v>153</v>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="21" t="s">
+        <v>191</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>109</v>
+        <v>192</v>
       </c>
       <c r="C11" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="15"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="C15" t="s">
+        <v>197</v>
+      </c>
+      <c r="D15" t="s">
         <v>176</v>
       </c>
-      <c r="E11">
+      <c r="E15">
         <v>5</v>
       </c>
-      <c r="F11">
+      <c r="F15">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E12">
-        <f>SUM(E2:E11)</f>
+    <row r="16" spans="1:9" ht="37.15" x14ac:dyDescent="0.3">
+      <c r="A16" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C16" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="E17">
+        <f>SUM(E2:E15)</f>
         <v>20</v>
       </c>
-      <c r="F12">
-        <f>SUM(F2:F11)</f>
+      <c r="F17">
+        <f>SUM(F2:F15)</f>
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="5"/>
       <c r="I19" s="7"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="2:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:9" ht="24.75" x14ac:dyDescent="0.3">
       <c r="B25" s="1" t="s">
         <v>36</v>
       </c>
@@ -2115,9 +2208,9 @@
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.87890625" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="24.75" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -2166,9 +2259,9 @@
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.87890625" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="24.75" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -2216,9 +2309,9 @@
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.87890625" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="24.75" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -2262,17 +2355,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView zoomScale="106" zoomScaleNormal="106" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.87890625" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="27.375" style="14" customWidth="1"/>
-    <col min="3" max="3" width="49.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.3515625" style="14" customWidth="1"/>
+    <col min="3" max="3" width="49.3515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>122</v>
       </c>
@@ -2283,7 +2376,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>123</v>
       </c>
@@ -2294,7 +2387,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>124</v>
       </c>
@@ -2305,7 +2398,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>125</v>
       </c>
@@ -2316,7 +2409,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>126</v>
       </c>
@@ -2327,7 +2420,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>127</v>
       </c>
@@ -2338,7 +2431,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>128</v>
       </c>
@@ -2349,7 +2442,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>129</v>
       </c>
@@ -2360,7 +2453,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>130</v>
       </c>
@@ -2371,7 +2464,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>131</v>
       </c>
@@ -2382,7 +2475,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>132</v>
       </c>
@@ -2393,7 +2486,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>133</v>
       </c>
@@ -2404,7 +2497,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="45" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>134</v>
       </c>
@@ -2415,7 +2508,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>135</v>
       </c>
@@ -2426,7 +2519,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>136</v>
       </c>
@@ -2437,7 +2530,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>137</v>
       </c>
@@ -2448,7 +2541,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>138</v>
       </c>
@@ -2459,7 +2552,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>139</v>
       </c>
@@ -2470,7 +2563,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>140</v>
       </c>
@@ -2481,7 +2574,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>141</v>
       </c>
@@ -2492,7 +2585,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>142</v>
       </c>
@@ -2503,7 +2596,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>143</v>
       </c>
@@ -2514,7 +2607,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>144</v>
       </c>
@@ -2525,7 +2618,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>145</v>
       </c>
@@ -2536,7 +2629,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" ht="45" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>146</v>
       </c>
@@ -2547,7 +2640,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>147</v>
       </c>
@@ -2558,7 +2651,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="94.5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" ht="75" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>148</v>
       </c>
@@ -2569,7 +2662,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>149</v>
       </c>
@@ -2580,7 +2673,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>150</v>
       </c>
@@ -2591,7 +2684,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>151</v>
       </c>
@@ -2602,7 +2695,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>152</v>
       </c>
@@ -2613,7 +2706,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>153</v>
       </c>
@@ -2624,7 +2717,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>154</v>
       </c>
@@ -2635,7 +2728,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>155</v>
       </c>
@@ -2646,7 +2739,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>156</v>
       </c>
@@ -2657,7 +2750,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>157</v>
       </c>
@@ -2668,7 +2761,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>158</v>
       </c>
@@ -2679,7 +2772,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>159</v>
       </c>
@@ -2690,7 +2783,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>160</v>
       </c>
@@ -2701,7 +2794,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>161</v>
       </c>
@@ -2712,7 +2805,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>162</v>
       </c>
@@ -2723,7 +2816,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>163</v>
       </c>
@@ -2734,7 +2827,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>164</v>
       </c>

--- a/Team_06_Report.xlsx
+++ b/Team_06_Report.xlsx
@@ -5,11 +5,11 @@
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shree\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sem 1 docs\agile\my agile\week 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13875" windowHeight="7898" tabRatio="755" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7935" tabRatio="755" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -22,11 +22,16 @@
     <sheet name="Stories" sheetId="11" r:id="rId8"/>
   </sheets>
   <calcPr calcId="152511" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="183">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -163,15 +168,6 @@
     <t>GitHub Repository:</t>
   </si>
   <si>
-    <t>Bring pizza to our meetings</t>
-  </si>
-  <si>
-    <t>Leaving leftover pizza on the counter</t>
-  </si>
-  <si>
-    <t>Bring silverware for everyone</t>
-  </si>
-  <si>
     <t>Dates (birth, marriage, divorce, death) should not be after the current date</t>
   </si>
   <si>
@@ -586,76 +582,34 @@
     <t>siddpro123</t>
   </si>
   <si>
-    <t>coding</t>
-  </si>
-  <si>
     <t>shirlyjoanr</t>
   </si>
   <si>
     <t>sid-s_repository</t>
   </si>
   <si>
-    <t>T02.01</t>
-  </si>
-  <si>
-    <t>T02.02</t>
-  </si>
-  <si>
-    <t>T02.03</t>
-  </si>
-  <si>
-    <t>Fetch birth date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fetch marriage date </t>
-  </si>
-  <si>
-    <t>Compare birth and marriage date ( Marriage after birth)</t>
-  </si>
-  <si>
-    <t>T03.01</t>
-  </si>
-  <si>
-    <t>T03.02</t>
-  </si>
-  <si>
-    <t>T03.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fetch Death date </t>
-  </si>
-  <si>
-    <t>Compare birth and marriage date ( Death after birth)</t>
+    <t>Complete</t>
+  </si>
+  <si>
+    <t>complete</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>Brain storming and find better solution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">continuous code improvement </t>
+  </si>
+  <si>
+    <t xml:space="preserve">date problem </t>
   </si>
   <si>
     <t xml:space="preserve">coding </t>
   </si>
   <si>
-    <t>T08.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Get Birthdate of child </t>
-  </si>
-  <si>
-    <t>T08.02</t>
-  </si>
-  <si>
-    <t>Get the marriage date of parents</t>
-  </si>
-  <si>
-    <t>T08.03</t>
-  </si>
-  <si>
-    <t>Compare birth and marriage date</t>
-  </si>
-  <si>
-    <t>Sp</t>
-  </si>
-  <si>
-    <t>T01.01</t>
-  </si>
-  <si>
-    <t>Get dates (birth, marriage, divorce, death)and test against currnet date</t>
+    <t>N/A</t>
   </si>
 </sst>
 </file>
@@ -732,7 +686,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="109">
+  <cellStyleXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -789,61 +743,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -871,17 +772,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="55" applyFont="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="109">
+  <cellStyles count="56">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -909,33 +806,6 @@
     <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -963,33 +833,7 @@
     <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1038,7 +882,7 @@
                   <c:v>41064</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40340</c:v>
+                  <c:v>40347</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1050,10 +894,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>24</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1070,11 +914,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="394772432"/>
-        <c:axId val="394768512"/>
+        <c:axId val="322695688"/>
+        <c:axId val="322696472"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="394772432"/>
+        <c:axId val="322695688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1084,14 +928,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="394768512"/>
+        <c:crossAx val="322696472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="394768512"/>
+        <c:axId val="322696472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1102,7 +946,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="394772432"/>
+        <c:crossAx val="322695688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1480,12 +1324,12 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.87890625" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.76171875" customWidth="1"/>
     <col min="2" max="2" width="8.3515625" customWidth="1"/>
-    <col min="3" max="3" width="8.64453125" customWidth="1"/>
-    <col min="4" max="5" width="20.64453125" customWidth="1"/>
+    <col min="3" max="3" width="8.5859375" customWidth="1"/>
+    <col min="4" max="5" width="20.5859375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -1507,36 +1351,36 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C4" t="s">
+        <v>170</v>
+      </c>
+      <c r="D4" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="B4" t="s">
+      <c r="E4" t="s">
         <v>172</v>
-      </c>
-      <c r="C4" t="s">
-        <v>173</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="E4" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -1544,7 +1388,7 @@
         <v>34</v>
       </c>
       <c r="E8" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -1571,16 +1415,16 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B10" sqref="B10:C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.87890625" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.1171875" customWidth="1"/>
-    <col min="2" max="2" width="8.3515625" customWidth="1"/>
-    <col min="3" max="3" width="27" customWidth="1"/>
-    <col min="4" max="4" width="6.76171875" customWidth="1"/>
-    <col min="5" max="5" width="7.76171875" customWidth="1"/>
+    <col min="2" max="2" width="8.41015625" customWidth="1"/>
+    <col min="3" max="3" width="27.05859375" customWidth="1"/>
+    <col min="4" max="4" width="6.703125" customWidth="1"/>
+    <col min="5" max="5" width="11.76171875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -1605,16 +1449,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C2" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="D2" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="D2" t="s">
-        <v>171</v>
-      </c>
-      <c r="E2" t="s">
-        <v>190</v>
+      <c r="E2" s="15" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1622,16 +1466,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="D3" t="s">
-        <v>168</v>
-      </c>
-      <c r="E3" t="s">
-        <v>190</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -1639,16 +1477,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="D4" t="s">
-        <v>168</v>
-      </c>
-      <c r="E4" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -1656,16 +1488,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="D5" t="s">
-        <v>171</v>
-      </c>
-      <c r="E5" t="s">
-        <v>190</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -1673,10 +1499,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -1695,10 +1521,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C8" s="14" t="s">
         <v>96</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -1706,10 +1538,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -1717,10 +1549,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -1728,7 +1560,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C11" s="14" t="s">
         <v>102</v>
@@ -1739,10 +1571,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -1764,7 +1596,7 @@
         <v>153</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -1772,10 +1604,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>121</v>
+        <v>112</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -1783,27 +1621,36 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="17" t="s">
         <v>161</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>116</v>
+        <v>117</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>175</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B17" r:id="rId1" display="US$@"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId2"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1816,18 +1663,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.87890625" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.76171875" style="2"/>
-    <col min="2" max="2" width="16.76171875" customWidth="1"/>
-    <col min="3" max="3" width="12.64453125" customWidth="1"/>
+    <col min="1" max="1" width="10.703125" style="2"/>
+    <col min="2" max="2" width="16.703125" customWidth="1"/>
+    <col min="3" max="3" width="12.5859375" customWidth="1"/>
     <col min="4" max="4" width="7.1171875" customWidth="1"/>
     <col min="5" max="5" width="6.87890625" customWidth="1"/>
-    <col min="6" max="6" width="12.64453125" style="9" customWidth="1"/>
+    <col min="6" max="6" width="12.5859375" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -1855,32 +1702,41 @@
         <v>41064</v>
       </c>
       <c r="B2">
-        <v>24</v>
+        <v>16</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
-        <v>40340</v>
+        <v>40347</v>
       </c>
       <c r="B3">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C3">
         <f>B2-B3</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D3">
-        <v>250</v>
+        <v>121</v>
       </c>
       <c r="E3">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="F3" s="9">
         <f>(D3-D2)/E3*60</f>
-        <v>125.00000000000001</v>
+        <v>242</v>
       </c>
     </row>
   </sheetData>
@@ -1898,23 +1754,23 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView zoomScale="103" zoomScaleNormal="103" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="B16" sqref="B16:B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.234375" customWidth="1"/>
-    <col min="2" max="2" width="28.46875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.76171875" customWidth="1"/>
+    <col min="1" max="1" width="9.29296875" customWidth="1"/>
+    <col min="2" max="2" width="24.9375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.46875" customWidth="1"/>
     <col min="4" max="4" width="8.87890625" customWidth="1"/>
     <col min="5" max="5" width="9.46875" customWidth="1"/>
     <col min="6" max="6" width="10.3515625" customWidth="1"/>
     <col min="7" max="7" width="9.3515625" customWidth="1"/>
     <col min="8" max="8" width="9.76171875" customWidth="1"/>
-    <col min="9" max="9" width="10.76171875" style="6"/>
+    <col min="9" max="9" width="10.703125" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -1948,267 +1804,178 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>168</v>
+        <v>120</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>165</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="E2">
-        <v>5</v>
+      <c r="E2" s="15">
+        <v>20</v>
       </c>
       <c r="F2">
         <v>10</v>
       </c>
+      <c r="G2">
+        <v>15</v>
+      </c>
+      <c r="H2">
+        <v>10</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>179</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="C3" s="15" t="s">
+      <c r="A3" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="I3" s="7"/>
+      <c r="D3" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="E3" s="15">
+        <v>25</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
+      <c r="G3">
+        <v>23</v>
+      </c>
+      <c r="H3">
+        <v>5</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>180</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>183</v>
+      <c r="A4" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>112</v>
       </c>
       <c r="C4" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="I4" s="7"/>
-    </row>
-    <row r="5" spans="1:9" s="18" customFormat="1" ht="24.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="18" t="s">
-        <v>181</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>184</v>
+      <c r="D4" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="E4">
+        <v>25</v>
+      </c>
+      <c r="F4">
+        <v>5</v>
+      </c>
+      <c r="G4">
+        <v>25</v>
+      </c>
+      <c r="H4">
+        <v>5</v>
+      </c>
+      <c r="I4" s="19" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>117</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="D5" s="15"/>
-      <c r="I5" s="20"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="D6" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="D5" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="E6">
+      <c r="E5">
+        <v>20</v>
+      </c>
+      <c r="F5">
         <v>5</v>
       </c>
-      <c r="F6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="18" t="s">
-        <v>185</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="D7" s="15"/>
-      <c r="I7" s="20"/>
-    </row>
-    <row r="8" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="18" t="s">
-        <v>186</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="D8" s="15"/>
-      <c r="I8" s="20"/>
-    </row>
-    <row r="9" spans="1:9" s="18" customFormat="1" ht="24.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>189</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="D9" s="15"/>
-      <c r="I9" s="20"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="E10">
+      <c r="G5">
+        <v>17</v>
+      </c>
+      <c r="H5">
         <v>5</v>
       </c>
-      <c r="F10">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="21" t="s">
-        <v>191</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="D11" s="15"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="21" t="s">
-        <v>193</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>171</v>
+      <c r="I5" s="19" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B7" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B8" s="5"/>
+      <c r="I8" s="7"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B9" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="24.75" x14ac:dyDescent="0.3">
+      <c r="B10" s="18" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="24.75" x14ac:dyDescent="0.3">
+      <c r="B11" s="18" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="21" t="s">
-        <v>195</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="C15" t="s">
-        <v>197</v>
-      </c>
-      <c r="D15" t="s">
-        <v>176</v>
-      </c>
-      <c r="E15">
-        <v>5</v>
-      </c>
-      <c r="F15">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="37.15" x14ac:dyDescent="0.3">
-      <c r="A16" s="18" t="s">
-        <v>198</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="C16" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="E17">
-        <f>SUM(E2:E15)</f>
-        <v>20</v>
-      </c>
-      <c r="F17">
-        <f>SUM(F2:F15)</f>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B18" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B19" s="5"/>
-      <c r="I19" s="7"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B20" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B21" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B22" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B24" s="5" t="s">
+      <c r="B13" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="2:9" ht="24.75" x14ac:dyDescent="0.3">
-      <c r="B25" s="1" t="s">
-        <v>36</v>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B14" s="18" t="s">
+        <v>180</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.87890625" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="25.8203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="24.75" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
@@ -2237,6 +2004,122 @@
       </c>
       <c r="I1" s="10" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E2">
+        <v>25</v>
+      </c>
+      <c r="F2">
+        <v>20</v>
+      </c>
+      <c r="G2" t="s">
+        <v>182</v>
+      </c>
+      <c r="H2" t="s">
+        <v>182</v>
+      </c>
+      <c r="I2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="C3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E3">
+        <v>25</v>
+      </c>
+      <c r="F3">
+        <v>20</v>
+      </c>
+      <c r="G3" t="s">
+        <v>182</v>
+      </c>
+      <c r="H3" t="s">
+        <v>182</v>
+      </c>
+      <c r="I3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" t="s">
+        <v>168</v>
+      </c>
+      <c r="D4" t="s">
+        <v>181</v>
+      </c>
+      <c r="E4">
+        <v>20</v>
+      </c>
+      <c r="F4">
+        <v>10</v>
+      </c>
+      <c r="G4" t="s">
+        <v>182</v>
+      </c>
+      <c r="H4" t="s">
+        <v>182</v>
+      </c>
+      <c r="I4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D5" t="s">
+        <v>181</v>
+      </c>
+      <c r="E5">
+        <v>20</v>
+      </c>
+      <c r="F5">
+        <v>10</v>
+      </c>
+      <c r="G5" t="s">
+        <v>182</v>
+      </c>
+      <c r="H5" t="s">
+        <v>182</v>
+      </c>
+      <c r="I5" t="s">
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -2259,7 +2142,7 @@
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.87890625" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:9" ht="24.75" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
@@ -2309,7 +2192,7 @@
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.87890625" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:9" ht="24.75" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
@@ -2355,487 +2238,487 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView zoomScale="106" zoomScaleNormal="106" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.87890625" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="27.3515625" style="14" customWidth="1"/>
-    <col min="3" max="3" width="49.3515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.41015625" style="14" customWidth="1"/>
+    <col min="3" max="3" width="49.41015625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="45" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="45" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="75" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="45" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B43" s="14" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
